--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8892.015131385448</v>
+        <v>26661.20689613179</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15807964.10691957</v>
+        <v>15755340.5539512</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21326238.92539726</v>
+        <v>21332812.42724543</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3481114.968551517</v>
+        <v>3483024.691923643</v>
       </c>
     </row>
     <row r="11">
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.80030455040011</v>
+        <v>82.01270964108606</v>
       </c>
       <c r="K2" t="n">
-        <v>70.46480586072633</v>
+        <v>81.2743314685184</v>
       </c>
       <c r="L2" t="n">
-        <v>57.13228571623071</v>
+        <v>70.54245807633525</v>
       </c>
       <c r="M2" t="n">
-        <v>37.57934483655106</v>
+        <v>52.50074545075637</v>
       </c>
       <c r="N2" t="n">
-        <v>34.40083276460621</v>
+        <v>49.56367724059345</v>
       </c>
       <c r="O2" t="n">
-        <v>43.42807408235635</v>
+        <v>57.74591815338317</v>
       </c>
       <c r="P2" t="n">
-        <v>65.38007183670243</v>
+        <v>77.60002049629389</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.63342487673017</v>
+        <v>97.81009740783446</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>59.99448900991949</v>
+        <v>64.29014807201071</v>
       </c>
       <c r="K3" t="n">
-        <v>38.39792023795113</v>
+        <v>45.73988577757382</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61350529844596</v>
+        <v>23.48568402129196</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11.52036692897309</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.418125047647706</v>
+        <v>18.23594302922992</v>
       </c>
       <c r="P3" t="n">
-        <v>21.82048350850062</v>
+        <v>30.50273615440041</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.55545282356709</v>
+        <v>61.35930878861527</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,22 +8139,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>60.42909946350711</v>
+        <v>64.85774405223553</v>
       </c>
       <c r="L4" t="n">
-        <v>52.78454267318021</v>
+        <v>58.4516830177862</v>
       </c>
       <c r="M4" t="n">
-        <v>52.97980340177091</v>
+        <v>58.95500830344886</v>
       </c>
       <c r="N4" t="n">
-        <v>45.27133502328439</v>
+        <v>51.10446290764006</v>
       </c>
       <c r="O4" t="n">
-        <v>58.48650097449923</v>
+        <v>63.87433869480827</v>
       </c>
       <c r="P4" t="n">
-        <v>65.68959993062856</v>
+        <v>70.29982587808107</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.85452685770001</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K5" t="n">
-        <v>63.05236715997609</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L5" t="n">
-        <v>47.93650005528406</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M5" t="n">
-        <v>27.34726145054154</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N5" t="n">
-        <v>24.00318357209721</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O5" t="n">
-        <v>33.60986879248847</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P5" t="n">
-        <v>57.00046077400765</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.34068594611185</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,13 +8294,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>57.04881769811646</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K6" t="n">
-        <v>33.3632987864562</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L6" t="n">
-        <v>6.84383544603385</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P6" t="n">
-        <v>15.86678416430672</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.57556248148847</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,22 +8376,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>57.39223570718324</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L7" t="n">
-        <v>48.8984026206825</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M7" t="n">
-        <v>48.8824135934538</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N7" t="n">
-        <v>41.27137198649253</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O7" t="n">
-        <v>54.79188769724385</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P7" t="n">
-        <v>62.52822000776997</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>64.8545653500581</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K8" t="n">
-        <v>55.55872096633313</v>
+        <v>63.05236715997607</v>
       </c>
       <c r="L8" t="n">
-        <v>38.63996931854626</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M8" t="n">
-        <v>17.00307975621641</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N8" t="n">
-        <v>13.49162220344891</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O8" t="n">
-        <v>23.68409946486128</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P8" t="n">
-        <v>48.52904629366725</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q8" t="n">
-        <v>75.97900647208878</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,13 +8531,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>54.07087487733038</v>
+        <v>57.04881769811645</v>
       </c>
       <c r="K9" t="n">
-        <v>28.27352018597891</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.843835446033836</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.847858648713938</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.55207017118913</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,22 +8613,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>54.32210137664431</v>
+        <v>57.39223570718323</v>
       </c>
       <c r="L10" t="n">
-        <v>44.96968768784731</v>
+        <v>48.89840262068249</v>
       </c>
       <c r="M10" t="n">
-        <v>44.74013454325953</v>
+        <v>48.88241359345379</v>
       </c>
       <c r="N10" t="n">
-        <v>37.22758707366296</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O10" t="n">
-        <v>51.05679782469148</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P10" t="n">
-        <v>59.33220536508687</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K11" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L11" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P11" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K12" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8848,25 +8850,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L13" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M13" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N13" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O13" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P13" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K14" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L14" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P14" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K15" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9085,25 +9087,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L16" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M16" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N16" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O16" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P16" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K17" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L17" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P17" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K18" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9322,25 +9324,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L19" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M19" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N19" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O19" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P19" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K20" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L20" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P20" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K21" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,25 +9561,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L22" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M22" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N22" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O22" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P22" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K23" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L23" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P23" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K24" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9796,25 +9798,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L25" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M25" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N25" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O25" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P25" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K26" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L26" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P26" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K27" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10033,25 +10035,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L28" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M28" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N28" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O28" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P28" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K29" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L29" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P29" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K30" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10270,25 +10272,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L31" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M31" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N31" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O31" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P31" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K32" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L32" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P32" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K33" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10507,25 +10509,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L34" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M34" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N34" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O34" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P34" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K35" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L35" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M35" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P35" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K36" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10744,25 +10746,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L37" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M37" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N37" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O37" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P37" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K38" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L38" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P38" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K39" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10981,25 +10983,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L40" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M40" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N40" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O40" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P40" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>56.67388359071279</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K41" t="n">
-        <v>43.29799963205343</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L41" t="n">
-        <v>23.42946033622977</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>7.444062424199217</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P41" t="n">
-        <v>34.66855040599816</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.57035129496393</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>49.1985168647449</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K42" t="n">
-        <v>19.94588428470415</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.96903746155226</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11218,25 +11220,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>49.29890432238842</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L43" t="n">
-        <v>38.54172488461563</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M43" t="n">
-        <v>37.96274903414103</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N43" t="n">
-        <v>30.61135264374985</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O43" t="n">
-        <v>44.94563446009283</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P43" t="n">
-        <v>54.10304937057823</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.07942938682527</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.67388359071279</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K44" t="n">
-        <v>43.29799963205343</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L44" t="n">
-        <v>23.42946033622977</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07845776207051358</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>7.444062424199217</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>34.66855040599816</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.57035129496393</v>
+        <v>60.7992612601026</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>49.1985168647449</v>
+        <v>46.96513912626315</v>
       </c>
       <c r="K45" t="n">
-        <v>19.94588428470415</v>
+        <v>16.12868600246645</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.96903746155226</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,25 +11457,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>49.29890432238842</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L46" t="n">
-        <v>38.54172488461563</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M46" t="n">
-        <v>37.96274903414103</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N46" t="n">
-        <v>30.61135264374985</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O46" t="n">
-        <v>44.94563446009283</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P46" t="n">
-        <v>54.10304937057823</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.07942938682527</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0910991671059</v>
+        <v>411.1760772090881</v>
       </c>
       <c r="H2" t="n">
-        <v>320.7690783136127</v>
+        <v>321.6393596860628</v>
       </c>
       <c r="I2" t="n">
-        <v>138.2481755487984</v>
+        <v>141.5242915123168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>36.22203728504044</v>
+        <v>41.56003921470423</v>
       </c>
       <c r="S2" t="n">
-        <v>165.9452104078107</v>
+        <v>167.8816475394799</v>
       </c>
       <c r="T2" t="n">
-        <v>218.3863943170558</v>
+        <v>218.7583856958329</v>
       </c>
       <c r="U2" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2751333654446</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -22638,13 +22640,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>126.9854363758741</v>
+        <v>127.0309036367328</v>
       </c>
       <c r="H3" t="n">
-        <v>94.5366171262896</v>
+        <v>94.97573514563526</v>
       </c>
       <c r="I3" t="n">
-        <v>52.00608518301455</v>
+        <v>53.57151499766643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.88817237036449</v>
+        <v>33.71113089981824</v>
       </c>
       <c r="S3" t="n">
-        <v>142.8056045053299</v>
+        <v>143.6501389339988</v>
       </c>
       <c r="T3" t="n">
-        <v>184.9611451887135</v>
+        <v>185.1444101568237</v>
       </c>
       <c r="U3" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2828503105535</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8484416772834</v>
+        <v>166.8865599014431</v>
       </c>
       <c r="H4" t="n">
-        <v>154.3816182209092</v>
+        <v>154.7205238866194</v>
       </c>
       <c r="I4" t="n">
-        <v>131.269940117466</v>
+        <v>132.4162590767394</v>
       </c>
       <c r="J4" t="n">
-        <v>32.44152677383354</v>
+        <v>35.13648522191968</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.155510525861384</v>
+        <v>9.347392005264936</v>
       </c>
       <c r="R4" t="n">
-        <v>130.8455323770033</v>
+        <v>132.5594663469447</v>
       </c>
       <c r="S4" t="n">
-        <v>204.9135390503414</v>
+        <v>205.5778357386506</v>
       </c>
       <c r="T4" t="n">
-        <v>229.2145141050582</v>
+        <v>229.3773828810129</v>
       </c>
       <c r="U4" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2995739570064</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22796,13 +22798,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.0328269958786</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H5" t="n">
-        <v>320.1722984400315</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I5" t="n">
-        <v>136.0016376675592</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.56159800918574</v>
+        <v>36.22203728504045</v>
       </c>
       <c r="S5" t="n">
-        <v>164.6173333059695</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1313078875085</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U5" t="n">
-        <v>252.2636733483879</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22875,13 +22877,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>126.9542580155802</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H6" t="n">
-        <v>94.23549980450369</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I6" t="n">
-        <v>50.93261970798304</v>
+        <v>52.00608518301456</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>28.95237908825671</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S6" t="n">
-        <v>142.22648013759</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8354745171779</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U6" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>166.822302787362</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H7" t="n">
-        <v>154.1492197268807</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4838724096476</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J7" t="n">
-        <v>30.59350725638981</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.966734934351265</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R7" t="n">
-        <v>129.6702328356279</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S7" t="n">
-        <v>204.4580094868928</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T7" t="n">
-        <v>229.1028297572121</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U7" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23033,13 +23035,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>410.973916419786</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H8" t="n">
-        <v>319.5689805026228</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7304876827481</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>28.86105653370704</v>
+        <v>32.56159800918574</v>
       </c>
       <c r="S8" t="n">
-        <v>163.2749085532586</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T8" t="n">
-        <v>217.873426840663</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U8" t="n">
-        <v>252.2589605023005</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -23112,13 +23114,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>126.9227380785699</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H9" t="n">
-        <v>93.93108357074615</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I9" t="n">
-        <v>49.84739380653136</v>
+        <v>50.93261970798304</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.99537808686179</v>
+        <v>28.95237908825671</v>
       </c>
       <c r="S9" t="n">
-        <v>141.6410111321571</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T9" t="n">
-        <v>184.7084270517723</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U9" t="n">
-        <v>216.2757341554112</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -23191,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7958775309959</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H10" t="n">
-        <v>153.9142751748253</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I10" t="n">
-        <v>129.6891928818367</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J10" t="n">
-        <v>28.72524163130364</v>
+        <v>30.59350725638981</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.753980058091948</v>
+        <v>3.966734934351265</v>
       </c>
       <c r="R10" t="n">
-        <v>128.4820572175649</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S10" t="n">
-        <v>203.9974893373119</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T10" t="n">
-        <v>228.9899218436477</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U10" t="n">
-        <v>284.2946276458911</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23270,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H11" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I11" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S11" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T11" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,13 +23351,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I12" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S12" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T12" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H13" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I13" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S13" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T13" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U13" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,13 +23509,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H14" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I14" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S14" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T14" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,13 +23588,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I15" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S15" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T15" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I16" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S16" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T16" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U16" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,13 +23746,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H17" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I17" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S17" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T17" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,13 +23825,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H18" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I18" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S18" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T18" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,16 +23904,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I19" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J19" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S19" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T19" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U19" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H20" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I20" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S20" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T20" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H21" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I21" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S21" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T21" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,16 +24141,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I22" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J22" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S22" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T22" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U22" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,13 +24220,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H23" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I23" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S23" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T23" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,13 +24299,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H24" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I24" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S24" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T24" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,16 +24378,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I25" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J25" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S25" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U25" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,13 +24457,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H26" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I26" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S26" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T26" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,13 +24536,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H27" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I27" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S27" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T27" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H28" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I28" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J28" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S28" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T28" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U28" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H29" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I29" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S29" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T29" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,13 +24773,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H30" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I30" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S30" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T30" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,16 +24852,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H31" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I31" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J31" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S31" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T31" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U31" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,13 +24931,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H32" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I32" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S32" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T32" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,13 +25010,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H33" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I33" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S33" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T33" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,16 +25089,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H34" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I34" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J34" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S34" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T34" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U34" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H35" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I35" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S35" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T35" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,13 +25247,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H36" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I36" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S36" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T36" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H37" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I37" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J37" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S37" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T37" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U37" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,13 +25405,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H38" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I38" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S38" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T38" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,13 +25484,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H39" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I39" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S39" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T39" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H40" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I40" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J40" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S40" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U40" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,13 +25642,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H41" t="n">
-        <v>318.5818624941939</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I41" t="n">
-        <v>130.0145480249957</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>22.80641949262574</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S41" t="n">
-        <v>161.0785017067238</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T41" t="n">
-        <v>217.451495037231</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,13 +25721,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.8711667667984</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H42" t="n">
-        <v>93.43301327021632</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I42" t="n">
-        <v>48.07180258983779</v>
+        <v>48.06357145101165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.79343295775172</v>
+        <v>23.77858964549403</v>
       </c>
       <c r="S42" t="n">
-        <v>140.6830966349982</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T42" t="n">
-        <v>184.500558474939</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,16 +25800,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H43" t="n">
-        <v>153.5298708932086</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I43" t="n">
-        <v>128.3889788086381</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J43" t="n">
-        <v>25.66848079476623</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>126.5380249303701</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S43" t="n">
-        <v>203.2440097791736</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T43" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U43" t="n">
-        <v>284.292269337415</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H44" t="n">
-        <v>318.5818624941939</v>
+        <v>318.1293901225855</v>
       </c>
       <c r="I44" t="n">
-        <v>130.0145480249957</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.80641949262574</v>
+        <v>20.03111202400184</v>
       </c>
       <c r="S44" t="n">
-        <v>161.0785017067238</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T44" t="n">
-        <v>217.451495037231</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2512495841338</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.8711667667984</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H45" t="n">
-        <v>93.43301327021632</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I45" t="n">
-        <v>48.07180258983779</v>
+        <v>47.25791209046071</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.79343295775172</v>
+        <v>22.32573437059479</v>
       </c>
       <c r="S45" t="n">
-        <v>140.6830966349982</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T45" t="n">
-        <v>184.500558474939</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H46" t="n">
-        <v>153.5298708932086</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I46" t="n">
-        <v>128.3889788086381</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J46" t="n">
-        <v>25.66848079476623</v>
+        <v>24.26733137459814</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>126.5380249303701</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S46" t="n">
-        <v>203.2440097791736</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T46" t="n">
-        <v>228.8051876796806</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U46" t="n">
-        <v>284.292269337415</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>302422.5544009016</v>
+        <v>303360.6054673697</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>301871.4153366056</v>
+        <v>302422.5544009016</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>301401.6811733822</v>
+        <v>301871.4153366056</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>300767.5628403332</v>
+        <v>300766.1880003325</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>300767.5628403332</v>
+        <v>300799.7215409404</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58763.10590694872</v>
+        <v>58332.5414782312</v>
       </c>
       <c r="C2" t="n">
-        <v>59058.35775706609</v>
+        <v>58763.10590694869</v>
       </c>
       <c r="D2" t="n">
-        <v>59356.84425956821</v>
+        <v>59058.3577570661</v>
       </c>
       <c r="E2" t="n">
-        <v>59831.77443771364</v>
+        <v>59833.91753685106</v>
       </c>
       <c r="F2" t="n">
-        <v>59831.77443771364</v>
+        <v>59833.91753685103</v>
       </c>
       <c r="G2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685106</v>
       </c>
       <c r="H2" t="n">
-        <v>59831.77443771364</v>
+        <v>59833.91753685106</v>
       </c>
       <c r="I2" t="n">
-        <v>59831.77443771365</v>
+        <v>59833.91753685104</v>
       </c>
       <c r="J2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685105</v>
       </c>
       <c r="K2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685105</v>
       </c>
       <c r="L2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685105</v>
       </c>
       <c r="M2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685104</v>
       </c>
       <c r="N2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685106</v>
       </c>
       <c r="O2" t="n">
-        <v>59831.77443771366</v>
+        <v>59833.91753685106</v>
       </c>
       <c r="P2" t="n">
-        <v>59831.77443771366</v>
+        <v>60043.6829067598</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204186.7702736322</v>
+        <v>183817.6412139467</v>
       </c>
       <c r="C3" t="n">
-        <v>13199.36047139268</v>
+        <v>19248.56727753535</v>
       </c>
       <c r="D3" t="n">
-        <v>12549.89572580629</v>
+        <v>12413.89443329499</v>
       </c>
       <c r="E3" t="n">
-        <v>19262.49973097036</v>
+        <v>31124.86745736713</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7240.779447535443</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18400.87585064966</v>
+        <v>21419.98832258561</v>
       </c>
       <c r="C4" t="n">
+        <v>18400.87585064967</v>
+      </c>
+      <c r="D4" t="n">
         <v>16422.68617745293</v>
       </c>
-      <c r="D4" t="n">
-        <v>14510.26725213598</v>
-      </c>
       <c r="E4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="F4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="G4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="H4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="I4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="J4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="K4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="L4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="M4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="N4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="O4" t="n">
-        <v>11580.65305805066</v>
+        <v>11568.91990555253</v>
       </c>
       <c r="P4" t="n">
-        <v>11580.65305805066</v>
+        <v>10588.58749160148</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>37786.14142530667</v>
+      </c>
+      <c r="C5" t="n">
         <v>38246.95610246559</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>38562.95151898825</v>
       </c>
-      <c r="D5" t="n">
-        <v>38882.40884549456</v>
-      </c>
       <c r="E5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="F5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="G5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="H5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="I5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="J5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="K5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="L5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="M5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="N5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="O5" t="n">
-        <v>5777.488614097808</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="P5" t="n">
-        <v>5777.488614097808</v>
+        <v>6017.073093838006</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202071.4963197987</v>
+        <v>-184691.2294836078</v>
       </c>
       <c r="C6" t="n">
-        <v>-9126.640410767774</v>
+        <v>-17133.29332370191</v>
       </c>
       <c r="D6" t="n">
-        <v>-6585.727563868622</v>
+        <v>-8341.174372670066</v>
       </c>
       <c r="E6" t="n">
-        <v>23211.13303459481</v>
+        <v>11360.21856421582</v>
       </c>
       <c r="F6" t="n">
-        <v>42473.63276556517</v>
+        <v>42485.08602158293</v>
       </c>
       <c r="G6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158295</v>
       </c>
       <c r="H6" t="n">
-        <v>42473.63276556517</v>
+        <v>42485.08602158295</v>
       </c>
       <c r="I6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158294</v>
       </c>
       <c r="J6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158295</v>
       </c>
       <c r="K6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158295</v>
       </c>
       <c r="L6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158295</v>
       </c>
       <c r="M6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158294</v>
       </c>
       <c r="N6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158296</v>
       </c>
       <c r="O6" t="n">
-        <v>42473.63276556518</v>
+        <v>42485.08602158296</v>
       </c>
       <c r="P6" t="n">
-        <v>42473.6327655652</v>
+        <v>36197.24287378488</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>190.7587809773703</v>
+      </c>
+      <c r="C3" t="n">
         <v>211.8970689204402</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>226.3922715132224</v>
       </c>
-      <c r="D3" t="n">
-        <v>241.0462773162643</v>
-      </c>
       <c r="E3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="F3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="G3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="H3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="I3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="J3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="K3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="M3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="N3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="O3" t="n">
-        <v>265.0224134907251</v>
+        <v>265.133560078696</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0224134907251</v>
+        <v>276.0125272402755</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.8970689204402</v>
+        <v>190.7587809773703</v>
       </c>
       <c r="C3" t="n">
+        <v>21.13828794306991</v>
+      </c>
+      <c r="D3" t="n">
         <v>14.49520259278222</v>
       </c>
-      <c r="D3" t="n">
-        <v>14.65400580304185</v>
-      </c>
       <c r="E3" t="n">
-        <v>23.97613617446083</v>
+        <v>38.74128856547352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.87896716157951</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.7668694712658096</v>
       </c>
       <c r="H2" t="n">
-        <v>8.723983345051083</v>
+        <v>7.853701972600975</v>
       </c>
       <c r="I2" t="n">
-        <v>32.84085125449356</v>
+        <v>29.56473529097515</v>
       </c>
       <c r="J2" t="n">
-        <v>72.29949287753251</v>
+        <v>65.08708778684657</v>
       </c>
       <c r="K2" t="n">
-        <v>108.3581981133204</v>
+        <v>97.54867250552832</v>
       </c>
       <c r="L2" t="n">
-        <v>134.4279264468839</v>
+        <v>121.0177540867794</v>
       </c>
       <c r="M2" t="n">
-        <v>149.576969660608</v>
+        <v>134.6555690464027</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9972814076239</v>
+        <v>136.8344369316367</v>
       </c>
       <c r="O2" t="n">
-        <v>143.5267226977641</v>
+        <v>129.2088786267373</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4967372144541</v>
+        <v>110.2767885548626</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.98994814626005</v>
+        <v>82.81327561515576</v>
       </c>
       <c r="R2" t="n">
-        <v>53.50986635406474</v>
+        <v>48.17186442440096</v>
       </c>
       <c r="S2" t="n">
-        <v>19.41147520813882</v>
+        <v>17.47503807646966</v>
       </c>
       <c r="T2" t="n">
-        <v>3.728962489243123</v>
+        <v>3.356971110466083</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06814780105984</v>
+        <v>0.06134955770126475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4103113402154758</v>
       </c>
       <c r="H3" t="n">
-        <v>4.401861752479334</v>
+        <v>3.962743733133674</v>
       </c>
       <c r="I3" t="n">
-        <v>15.69237727382506</v>
+        <v>14.12694745917318</v>
       </c>
       <c r="J3" t="n">
-        <v>43.0610826567472</v>
+        <v>38.76542359465599</v>
       </c>
       <c r="K3" t="n">
-        <v>73.59824892871555</v>
+        <v>66.25628338909286</v>
       </c>
       <c r="L3" t="n">
-        <v>98.96192827270183</v>
+        <v>89.08974954985582</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>103.9635356326668</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>108.4413235634634</v>
+        <v>97.62350558188119</v>
       </c>
       <c r="P3" t="n">
-        <v>87.03372251564271</v>
+        <v>78.35146986974291</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.1797386213254</v>
+        <v>52.37588265627722</v>
       </c>
       <c r="R3" t="n">
-        <v>28.29825384563918</v>
+        <v>25.47529531618542</v>
       </c>
       <c r="S3" t="n">
-        <v>8.465887612057205</v>
+        <v>7.621353183388328</v>
       </c>
       <c r="T3" t="n">
-        <v>1.837107606961174</v>
+        <v>1.653842638850974</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.0269941671194392</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.3439912443854218</v>
       </c>
       <c r="H4" t="n">
-        <v>3.397300547609683</v>
+        <v>3.05839488189948</v>
       </c>
       <c r="I4" t="n">
-        <v>11.49107383588223</v>
+        <v>10.34475487660887</v>
       </c>
       <c r="J4" t="n">
-        <v>27.01513942613546</v>
+        <v>24.32018097804932</v>
       </c>
       <c r="K4" t="n">
-        <v>44.39417280005287</v>
+        <v>39.96552821132445</v>
       </c>
       <c r="L4" t="n">
-        <v>56.80925680532589</v>
+        <v>51.1421164607199</v>
       </c>
       <c r="M4" t="n">
-        <v>59.89739605565819</v>
+        <v>53.92219115398024</v>
       </c>
       <c r="N4" t="n">
-        <v>58.47316985471758</v>
+        <v>52.6400419703619</v>
       </c>
       <c r="O4" t="n">
-        <v>54.00943651762304</v>
+        <v>48.621598797314</v>
       </c>
       <c r="P4" t="n">
-        <v>46.21440335930385</v>
+        <v>41.60417741185136</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.99645740698647</v>
+        <v>28.80457592758292</v>
       </c>
       <c r="R4" t="n">
-        <v>17.18103119476224</v>
+        <v>15.46709722482087</v>
       </c>
       <c r="S4" t="n">
-        <v>6.659125920007929</v>
+        <v>5.994829231698668</v>
       </c>
       <c r="T4" t="n">
-        <v>1.632649547419785</v>
+        <v>1.469780771464984</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.01876315878465939</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9101196844752654</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H5" t="n">
-        <v>9.320763218632313</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I5" t="n">
-        <v>35.0873891357327</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J5" t="n">
-        <v>77.24527057023262</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K5" t="n">
-        <v>115.7706368140706</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L5" t="n">
-        <v>143.6237121078306</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M5" t="n">
-        <v>159.8090530466175</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N5" t="n">
-        <v>162.3949306001329</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O5" t="n">
-        <v>153.344927987632</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P5" t="n">
-        <v>130.8763482771488</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.28268707687837</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R5" t="n">
-        <v>57.17030562991944</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S5" t="n">
-        <v>20.73935230998013</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T5" t="n">
-        <v>3.984048918790476</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H6" t="n">
-        <v>4.702979074265244</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I6" t="n">
-        <v>16.76584274885657</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J6" t="n">
-        <v>46.00675396855024</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K6" t="n">
-        <v>78.63287038021048</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L6" t="n">
-        <v>105.7315981251139</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
@@ -31379,25 +31381,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P6" t="n">
-        <v>92.9874218598366</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.15962896340402</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R6" t="n">
-        <v>30.23404712774696</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S6" t="n">
-        <v>9.045011979797135</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T6" t="n">
-        <v>1.962778278496711</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H7" t="n">
-        <v>3.629699041638224</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I7" t="n">
-        <v>12.27714154370065</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J7" t="n">
-        <v>28.86315894357919</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K7" t="n">
-        <v>47.43103655637675</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L7" t="n">
-        <v>60.6953968578236</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M7" t="n">
-        <v>63.9947858639753</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N7" t="n">
-        <v>62.47313289150943</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O7" t="n">
-        <v>57.70404979487842</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P7" t="n">
-        <v>49.37578328216245</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.18523299849659</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R7" t="n">
-        <v>18.35633073613767</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S7" t="n">
-        <v>7.114655483456511</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T7" t="n">
-        <v>1.744333895265811</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9690302605678959</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H8" t="n">
-        <v>9.924081156040966</v>
+        <v>9.320763218632315</v>
       </c>
       <c r="I8" t="n">
-        <v>37.35853912054384</v>
+        <v>35.08738913573271</v>
       </c>
       <c r="J8" t="n">
-        <v>82.24523207787453</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K8" t="n">
-        <v>123.2642830077136</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L8" t="n">
-        <v>152.9202428445683</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1532347409427</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N8" t="n">
-        <v>172.9064919687812</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O8" t="n">
-        <v>163.2706973152592</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P8" t="n">
-        <v>139.3477627574892</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.6443665509014</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R8" t="n">
-        <v>60.87084710539814</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S8" t="n">
-        <v>22.08177706269095</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T8" t="n">
-        <v>4.241929965635967</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07752242084543165</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5184768983783798</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H9" t="n">
-        <v>5.007395308022774</v>
+        <v>4.702979074265245</v>
       </c>
       <c r="I9" t="n">
-        <v>17.85106865030825</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J9" t="n">
-        <v>48.98469678933632</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K9" t="n">
-        <v>83.72264898068777</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -31619,22 +31621,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>99.00634737542939</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.18312127370336</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R9" t="n">
-        <v>32.19104812914188</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S9" t="n">
-        <v>9.630480985229987</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T9" t="n">
-        <v>2.089825743902328</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03411032226173553</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4346736148326077</v>
+        <v>0.4082483584664667</v>
       </c>
       <c r="H10" t="n">
-        <v>3.864643593693551</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I10" t="n">
-        <v>13.07182107151151</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J10" t="n">
-        <v>30.73142456866536</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K10" t="n">
-        <v>50.50117088691568</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L10" t="n">
-        <v>64.62411179065879</v>
+        <v>60.69539685782361</v>
       </c>
       <c r="M10" t="n">
-        <v>68.13706491416957</v>
+        <v>63.99478586397531</v>
       </c>
       <c r="N10" t="n">
-        <v>66.516917804339</v>
+        <v>62.47313289150944</v>
       </c>
       <c r="O10" t="n">
-        <v>61.43913966743079</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P10" t="n">
-        <v>52.57179792484555</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.39798787475591</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R10" t="n">
-        <v>19.5445063542007</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S10" t="n">
-        <v>7.575175633037351</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T10" t="n">
-        <v>1.857241808830232</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02370946989996045</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H11" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I11" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J11" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L11" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M11" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N11" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P11" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R11" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S11" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T11" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H12" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I12" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J12" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K12" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L12" t="n">
         <v>112.5754335711478</v>
@@ -31859,19 +31861,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R12" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S12" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T12" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H13" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I13" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J13" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K13" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L13" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M13" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N13" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O13" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P13" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R13" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S13" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H14" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I14" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J14" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L14" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M14" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N14" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P14" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R14" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S14" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T14" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H15" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I15" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J15" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K15" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
@@ -32096,19 +32098,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R15" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S15" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T15" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H16" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I16" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J16" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K16" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L16" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M16" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N16" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O16" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P16" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R16" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S16" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H17" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I17" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J17" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L17" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M17" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N17" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P17" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R17" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S17" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T17" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H18" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I18" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J18" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K18" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L18" t="n">
         <v>112.5754335711478</v>
@@ -32333,19 +32335,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R18" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S18" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T18" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H19" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I19" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J19" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K19" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L19" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M19" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N19" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O19" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P19" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R19" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S19" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H20" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I20" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J20" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L20" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M20" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P20" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R20" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S20" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T20" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H21" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I21" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J21" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K21" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L21" t="n">
         <v>112.5754335711478</v>
@@ -32570,19 +32572,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R21" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S21" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T21" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H22" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I22" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J22" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K22" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L22" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M22" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N22" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O22" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P22" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R22" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S22" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T22" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H23" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I23" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J23" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K23" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L23" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M23" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P23" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R23" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S23" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T23" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H24" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I24" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J24" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K24" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -32807,19 +32809,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R24" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S24" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T24" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H25" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I25" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J25" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K25" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L25" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M25" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N25" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O25" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P25" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R25" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S25" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H26" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I26" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J26" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K26" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L26" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M26" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P26" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R26" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S26" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T26" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H27" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I27" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J27" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K27" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L27" t="n">
         <v>112.5754335711478</v>
@@ -33044,19 +33046,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R27" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S27" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T27" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H28" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I28" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J28" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K28" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L28" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M28" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N28" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O28" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P28" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R28" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S28" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H29" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I29" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J29" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K29" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L29" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M29" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P29" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R29" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S29" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T29" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H30" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I30" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J30" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K30" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L30" t="n">
         <v>112.5754335711478</v>
@@ -33281,19 +33283,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R30" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S30" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T30" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H31" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I31" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J31" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K31" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L31" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M31" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N31" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O31" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P31" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R31" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S31" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T31" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H32" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I32" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J32" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L32" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M32" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P32" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R32" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S32" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T32" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H33" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I33" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J33" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K33" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L33" t="n">
         <v>112.5754335711478</v>
@@ -33518,19 +33520,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R33" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S33" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T33" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H34" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I34" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J34" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K34" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L34" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M34" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N34" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O34" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P34" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R34" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S34" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H35" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I35" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J35" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K35" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L35" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M35" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P35" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R35" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S35" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T35" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H36" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I36" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J36" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K36" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L36" t="n">
         <v>112.5754335711478</v>
@@ -33755,19 +33757,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R36" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S36" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T36" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H37" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I37" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J37" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K37" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L37" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M37" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N37" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O37" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P37" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R37" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S37" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T37" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H38" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I38" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J38" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K38" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L38" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M38" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P38" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R38" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S38" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T38" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H39" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I39" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J39" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K39" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L39" t="n">
         <v>112.5754335711478</v>
@@ -33992,19 +33994,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R39" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S39" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T39" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H40" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I40" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J40" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K40" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L40" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M40" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N40" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O40" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P40" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R40" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S40" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.065416737651155</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H41" t="n">
-        <v>10.9111991644699</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I41" t="n">
-        <v>41.07447877829621</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J41" t="n">
-        <v>90.42591383721984</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K41" t="n">
-        <v>135.5250043419933</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L41" t="n">
-        <v>168.1307518268848</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M41" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N41" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>179.5107343559212</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P41" t="n">
-        <v>153.2082586451583</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.0530217280263</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R41" t="n">
-        <v>66.92548414647945</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S41" t="n">
-        <v>24.27818390922573</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T41" t="n">
-        <v>4.663861769067935</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H42" t="n">
-        <v>5.505465608552611</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I42" t="n">
-        <v>19.62665986700182</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J42" t="n">
-        <v>53.8570548019218</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K42" t="n">
-        <v>92.05028488196253</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -34229,19 +34231,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.76615398334023</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R42" t="n">
-        <v>35.39299325825195</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S42" t="n">
-        <v>10.58839548238887</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T42" t="n">
-        <v>2.297694320735626</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H43" t="n">
-        <v>4.249047875310317</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I43" t="n">
-        <v>14.37203514471014</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J43" t="n">
-        <v>33.78818540520277</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K43" t="n">
-        <v>55.52436794117157</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L43" t="n">
-        <v>71.05207459389047</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M43" t="n">
-        <v>74.91445042328807</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N43" t="n">
-        <v>73.13315223425211</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O43" t="n">
-        <v>67.55030303202943</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P43" t="n">
-        <v>57.80095391935419</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.01838443709949</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R43" t="n">
-        <v>21.48853864139551</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S43" t="n">
-        <v>8.328655191175734</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T43" t="n">
-        <v>2.04197597279739</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.065416737651155</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H44" t="n">
-        <v>10.9111991644699</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I44" t="n">
-        <v>41.07447877829621</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J44" t="n">
-        <v>90.42591383721984</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K44" t="n">
-        <v>135.5250043419933</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L44" t="n">
-        <v>168.1307518268848</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M44" t="n">
-        <v>187.0778567350886</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>179.5107343559212</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>153.2082586451583</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.0530217280263</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R44" t="n">
-        <v>66.92548414647945</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S44" t="n">
-        <v>24.27818390922573</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T44" t="n">
-        <v>4.663861769067935</v>
+        <v>4.857265680379118</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08523333901209242</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5936873227432341</v>
       </c>
       <c r="H45" t="n">
-        <v>5.505465608552611</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I45" t="n">
-        <v>19.62665986700182</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J45" t="n">
-        <v>53.8570548019218</v>
+        <v>56.09043254040354</v>
       </c>
       <c r="K45" t="n">
-        <v>92.05028488196253</v>
+        <v>95.86748316420022</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -34466,19 +34468,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.76615398334023</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R45" t="n">
-        <v>35.39299325825195</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S45" t="n">
-        <v>10.58839548238887</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T45" t="n">
-        <v>2.297694320735626</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03905837649626542</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4779092702291764</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H46" t="n">
-        <v>4.249047875310317</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I46" t="n">
-        <v>14.37203514471014</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J46" t="n">
-        <v>33.78818540520277</v>
+        <v>35.18933482537086</v>
       </c>
       <c r="K46" t="n">
-        <v>55.52436794117157</v>
+        <v>57.82688685460196</v>
       </c>
       <c r="L46" t="n">
-        <v>71.05207459389047</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M46" t="n">
-        <v>74.91445042328807</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N46" t="n">
-        <v>73.13315223425211</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O46" t="n">
-        <v>67.55030303202943</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P46" t="n">
-        <v>57.80095391935419</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.01838443709949</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R46" t="n">
-        <v>21.48853864139551</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S46" t="n">
-        <v>8.328655191175734</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04197597279739</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02606777837613692</v>
+        <v>0.02714877317117467</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26661.20689613179</v>
+        <v>-92441.6938202915</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15755340.5539512</v>
+        <v>15946385.2703995</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21332812.42724543</v>
+        <v>20798824.24884349</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3483024.691923643</v>
+        <v>3674733.403674837</v>
       </c>
     </row>
     <row r="11">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>19.51148237878594</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>27.33110277469523</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>19.51148237878594</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>19.51148237878595</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>19.51148237878595</v>
       </c>
     </row>
     <row r="34">
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>19.51148237878595</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>19.51148237878595</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>19.51148237878594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>35.63579677896175</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>19.51148237878595</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>35.63579677896176</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.10855025169222</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>56.16240902913562</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>96.21626780657901</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>127.3548954543843</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>22.94524351614284</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>22.94524351614284</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>120.9814577002127</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.10855025169222</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>56.16240902913562</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>96.21626780657901</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>127.3548954543843</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.4451930358657</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>112.5780786827962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>22.94524351614284</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>22.94524351614284</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>22.94524351614284</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>98.4287482707893</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.239788012601</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>71.29364679004439</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>37.71555284053392</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.58742763546303</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>90.64128641290642</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>130.6951451903498</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>120.9814577002127</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.0353164776561</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.239788012601</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>71.29364679004439</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>123.3982517890933</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>98.4287482707893</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>121.7799140607117</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.10855025169222</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>56.16240902913562</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>96.21626780657901</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>127.3548954543843</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>58.3748894933459</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>98.4287482707893</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>123.3982517890933</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>123.3982517890933</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>98.4287482707893</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.72605528326835</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.72605528326835</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>121.7799140607117</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>39.2324297789467</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>37.71555284053392</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>37.71555284053392</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>50.58742763546303</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>90.64128641290642</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>130.6951451903498</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>98.4287482707893</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>104.6794722222818</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>63.81235786921232</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>43.2905342342065</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>83.34439301164988</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.10855025169222</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>56.16240902913562</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>96.21626780657901</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>136.2701265840224</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>120.9666584850857</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>80.09954413201618</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>40.87374014532591</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>80.92759892276931</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>120.9814577002127</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>138.4826070482327</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>145.5465865753513</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>84.97090416290206</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>44.10378980983258</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.236675456763103</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>31.239788012601</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>71.29364679004439</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.3475055674878</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>151.4013643449312</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>161.8337728381551</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>125.8380185159715</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.01270964108606</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K2" t="n">
-        <v>81.2743314685184</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54245807633525</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M2" t="n">
-        <v>52.50074545075637</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N2" t="n">
-        <v>49.56367724059345</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O2" t="n">
-        <v>57.74591815338317</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P2" t="n">
-        <v>77.60002049629389</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.81009740783446</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>64.29014807201071</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K3" t="n">
-        <v>45.73988577757382</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L3" t="n">
-        <v>23.48568402129196</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M3" t="n">
-        <v>11.52036692897309</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18.23594302922992</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P3" t="n">
-        <v>30.50273615440041</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.35930878861527</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8139,22 +8139,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>64.85774405223553</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L4" t="n">
-        <v>58.4516830177862</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M4" t="n">
-        <v>58.95500830344886</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N4" t="n">
-        <v>51.10446290764006</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O4" t="n">
-        <v>63.87433869480827</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P4" t="n">
-        <v>70.29982587808107</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.63596026319203</v>
+        <v>56.63596026319202</v>
       </c>
       <c r="K11" t="n">
         <v>43.24116239470834</v>
       </c>
       <c r="L11" t="n">
-        <v>23.35894871741084</v>
+        <v>23.35894871741081</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7.36877820440435</v>
+        <v>7.368778204404322</v>
       </c>
       <c r="P11" t="n">
         <v>34.60429706616523</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.5220997126454</v>
+        <v>65.52209971264539</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.93852038328525</v>
+        <v>40.93852038328524</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8856,7 +8856,7 @@
         <v>38.51192666658817</v>
       </c>
       <c r="M13" t="n">
-        <v>37.93133099124954</v>
+        <v>37.93133099124952</v>
       </c>
       <c r="N13" t="n">
         <v>30.58068165169554</v>
@@ -8868,7 +8868,7 @@
         <v>54.07880848194932</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.06264625204167</v>
+        <v>83.06264625204166</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.63596026319203</v>
+        <v>56.63596026319202</v>
       </c>
       <c r="K20" t="n">
         <v>43.24116239470834</v>
       </c>
       <c r="L20" t="n">
-        <v>23.35894871741084</v>
+        <v>23.35894871741081</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7.36877820440435</v>
+        <v>7.368778204404322</v>
       </c>
       <c r="P20" t="n">
         <v>34.60429706616523</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.5220997126454</v>
+        <v>65.52209971264539</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.93852038328525</v>
+        <v>40.93852038328524</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9567,7 +9567,7 @@
         <v>38.51192666658817</v>
       </c>
       <c r="M22" t="n">
-        <v>37.93133099124954</v>
+        <v>37.93133099124952</v>
       </c>
       <c r="N22" t="n">
         <v>30.58068165169554</v>
@@ -9579,7 +9579,7 @@
         <v>54.07880848194932</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.06264625204167</v>
+        <v>83.06264625204166</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K23" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L23" t="n">
-        <v>23.35894871741084</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>34.60429706616523</v>
+        <v>36.29782050695134</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K24" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9798,25 +9798,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>49.27561820117091</v>
+        <v>77.7260689828593</v>
       </c>
       <c r="L25" t="n">
-        <v>38.51192666658817</v>
+        <v>63.60427377557409</v>
       </c>
       <c r="M25" t="n">
-        <v>37.93133099124954</v>
+        <v>50.01590941749305</v>
       </c>
       <c r="N25" t="n">
-        <v>30.58068165169554</v>
+        <v>14.76452073322872</v>
       </c>
       <c r="O25" t="n">
-        <v>44.91730483468676</v>
+        <v>30.30852030665717</v>
       </c>
       <c r="P25" t="n">
-        <v>54.07880848194932</v>
+        <v>82.03691278224541</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.06264625204167</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K26" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L26" t="n">
-        <v>23.35894871741084</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>34.60429706616523</v>
+        <v>36.29782050695134</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K27" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10035,25 +10035,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L28" t="n">
-        <v>38.51192666658817</v>
+        <v>51.43180284465944</v>
       </c>
       <c r="M28" t="n">
-        <v>37.93133099124954</v>
+        <v>62.18838034840769</v>
       </c>
       <c r="N28" t="n">
-        <v>30.58068165169554</v>
+        <v>55.22296394276749</v>
       </c>
       <c r="O28" t="n">
-        <v>44.91730483468676</v>
+        <v>70.76696351619596</v>
       </c>
       <c r="P28" t="n">
-        <v>54.07880848194932</v>
+        <v>41.57846957270661</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.06264625204167</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K29" t="n">
-        <v>43.24116239470834</v>
+        <v>48.75895960295336</v>
       </c>
       <c r="L29" t="n">
-        <v>23.35894871741084</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>34.60429706616523</v>
+        <v>1.470671634455556</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K30" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10272,25 +10272,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L31" t="n">
-        <v>38.51192666658817</v>
+        <v>51.43180284465944</v>
       </c>
       <c r="M31" t="n">
-        <v>37.93133099124954</v>
+        <v>62.18838034840769</v>
       </c>
       <c r="N31" t="n">
-        <v>30.58068165169554</v>
+        <v>55.22296394276749</v>
       </c>
       <c r="O31" t="n">
-        <v>44.91730483468676</v>
+        <v>70.76696351619596</v>
       </c>
       <c r="P31" t="n">
-        <v>54.07880848194932</v>
+        <v>41.57846957270661</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.06264625204167</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K32" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L32" t="n">
-        <v>23.35894871741084</v>
+        <v>27.45654947728715</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>7.36877820440435</v>
+        <v>7.370599395208636</v>
       </c>
       <c r="P32" t="n">
-        <v>34.60429706616523</v>
+        <v>1.470671634455556</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K33" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10509,25 +10509,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L34" t="n">
-        <v>38.51192666658817</v>
+        <v>23.1458305660353</v>
       </c>
       <c r="M34" t="n">
-        <v>37.93133099124954</v>
+        <v>62.18838034840769</v>
       </c>
       <c r="N34" t="n">
-        <v>30.58068165169554</v>
+        <v>55.22296394276751</v>
       </c>
       <c r="O34" t="n">
-        <v>44.91730483468676</v>
+        <v>69.13227894207319</v>
       </c>
       <c r="P34" t="n">
-        <v>54.07880848194932</v>
+        <v>82.03691278224541</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.06264625204167</v>
+        <v>74.408059534285</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K35" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L35" t="n">
-        <v>23.35894871741084</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>34.60429706616523</v>
+        <v>36.29782050695134</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K36" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10746,25 +10746,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L37" t="n">
-        <v>38.51192666658817</v>
+        <v>63.60427377557409</v>
       </c>
       <c r="M37" t="n">
-        <v>37.93133099124954</v>
+        <v>62.18838034840769</v>
       </c>
       <c r="N37" t="n">
-        <v>30.58068165169554</v>
+        <v>55.22296394276751</v>
       </c>
       <c r="O37" t="n">
-        <v>44.91730483468676</v>
+        <v>58.59449258528132</v>
       </c>
       <c r="P37" t="n">
-        <v>54.07880848194932</v>
+        <v>41.57846957270661</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.06264625204167</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.63596026319203</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K38" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L38" t="n">
-        <v>23.35894871741084</v>
+        <v>27.45654947728715</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>7.36877820440435</v>
+        <v>7.370599395208636</v>
       </c>
       <c r="P38" t="n">
-        <v>34.60429706616523</v>
+        <v>1.470671634455556</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K39" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10983,25 +10983,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L40" t="n">
-        <v>38.51192666658817</v>
+        <v>63.60427377557409</v>
       </c>
       <c r="M40" t="n">
-        <v>37.93133099124954</v>
+        <v>60.55369577428492</v>
       </c>
       <c r="N40" t="n">
-        <v>30.58068165169554</v>
+        <v>14.76452073322872</v>
       </c>
       <c r="O40" t="n">
-        <v>44.91730483468676</v>
+        <v>70.76696351619596</v>
       </c>
       <c r="P40" t="n">
-        <v>54.07880848194932</v>
+        <v>82.03691278224541</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.06264625204167</v>
+        <v>74.408059534285</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>56.63596026319203</v>
+        <v>71.9071244590277</v>
       </c>
       <c r="K41" t="n">
-        <v>43.24116239470834</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L41" t="n">
-        <v>23.35894871741084</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>34.60429706616523</v>
+        <v>1.470671634455556</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.5220997126454</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>49.17592999067433</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K42" t="n">
-        <v>19.90727971933319</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.93852038328525</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11220,25 +11220,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>49.27561820117091</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L43" t="n">
-        <v>38.51192666658817</v>
+        <v>63.60427377557409</v>
       </c>
       <c r="M43" t="n">
-        <v>37.93133099124954</v>
+        <v>62.18838034840769</v>
       </c>
       <c r="N43" t="n">
-        <v>30.58068165169554</v>
+        <v>43.05049301185286</v>
       </c>
       <c r="O43" t="n">
-        <v>44.91730483468676</v>
+        <v>30.30852030665717</v>
       </c>
       <c r="P43" t="n">
-        <v>54.07880848194932</v>
+        <v>82.03691278224541</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.06264625204167</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.92404573402577</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K44" t="n">
-        <v>37.67796473006604</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L44" t="n">
-        <v>16.45731008283411</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.005283969331401</v>
       </c>
       <c r="P44" t="n">
-        <v>28.31521535141513</v>
+        <v>27.29253653761992</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.7992612601026</v>
+        <v>40.64012689712024</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>46.96513912626315</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K45" t="n">
-        <v>16.12868600246645</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.95152547507195</v>
+        <v>25.20172844066437</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,25 +11457,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>46.99638540895803</v>
+        <v>37.26762577332052</v>
       </c>
       <c r="L46" t="n">
-        <v>35.5952934049411</v>
+        <v>23.1458305660353</v>
       </c>
       <c r="M46" t="n">
-        <v>34.85615015900174</v>
+        <v>50.01590941749304</v>
       </c>
       <c r="N46" t="n">
-        <v>27.57862174627148</v>
+        <v>55.22296394276749</v>
       </c>
       <c r="O46" t="n">
-        <v>42.1444166145517</v>
+        <v>70.76696351619596</v>
       </c>
       <c r="P46" t="n">
-        <v>51.70612357838122</v>
+        <v>82.03691278224541</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.41992221064316</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.1760772090881</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H2" t="n">
-        <v>321.6393596860628</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I2" t="n">
-        <v>141.5242915123168</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.56003921470423</v>
+        <v>36.22203728504044</v>
       </c>
       <c r="S2" t="n">
-        <v>167.8816475394799</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7583856958329</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U2" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -22640,13 +22640,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H3" t="n">
-        <v>94.97573514563526</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I3" t="n">
-        <v>53.57151499766643</v>
+        <v>52.00608518301455</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>33.71113089981824</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S3" t="n">
-        <v>143.6501389339988</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T3" t="n">
-        <v>185.1444101568237</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U3" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -22719,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8865599014431</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H4" t="n">
-        <v>154.7205238866194</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I4" t="n">
-        <v>132.4162590767394</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J4" t="n">
-        <v>35.13648522191968</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.347392005264936</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R4" t="n">
-        <v>132.5594663469447</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5778357386506</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T4" t="n">
-        <v>229.3773828810129</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U4" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.77835190727248</v>
+        <v>22.77835190727247</v>
       </c>
       <c r="S11" t="n">
         <v>161.0683197856248</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.77858964549403</v>
+        <v>23.77858964549402</v>
       </c>
       <c r="S12" t="n">
         <v>140.678656014243</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>22.77835190727248</v>
+        <v>22.77835190727247</v>
       </c>
       <c r="S20" t="n">
         <v>161.0683197856248</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.77858964549403</v>
+        <v>23.77858964549402</v>
       </c>
       <c r="S21" t="n">
         <v>140.678656014243</v>
@@ -24220,13 +24220,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.8770831222486</v>
+        <v>370.1882272742125</v>
       </c>
       <c r="H23" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I23" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S23" t="n">
-        <v>161.0683197856248</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4495390806929</v>
+        <v>180.8051109767093</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2512138384975</v>
+        <v>211.7743376178789</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>293.1510381534792</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24290,22 +24290,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>96.99180743015125</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>113.8353776908385</v>
       </c>
       <c r="G24" t="n">
-        <v>126.870927696779</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H24" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I24" t="n">
-        <v>48.06357145101165</v>
+        <v>43.8190065544485</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>140.678656014243</v>
+        <v>97.93031059617618</v>
       </c>
       <c r="T24" t="n">
-        <v>184.4995948549924</v>
+        <v>184.0026833721973</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>198.4442668694843</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -24372,22 +24372,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>110.0304808867556</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>115.3200516455189</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7524414473259</v>
+        <v>126.1906430603956</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I25" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J25" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S25" t="n">
-        <v>203.2405168609909</v>
+        <v>160.9808747872746</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8043313043306</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2866208498332</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24445,25 +24445,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>350.7833183058254</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>350.3794194854154</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>369.5512355733925</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H26" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I26" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>22.77835190727248</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>161.0683197856248</v>
+        <v>115.3593485763288</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4495390806929</v>
+        <v>216.440907755671</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2327808274177</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>117.3668051439095</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -24530,19 +24530,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>126.0462474649115</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.870927696779</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H27" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I27" t="n">
-        <v>48.06357145101165</v>
+        <v>43.8190065544485</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>140.678656014243</v>
+        <v>97.93031059617618</v>
       </c>
       <c r="T27" t="n">
-        <v>184.4995948549924</v>
+        <v>143.5442401626585</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24615,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7524414473259</v>
+        <v>131.0132894909727</v>
       </c>
       <c r="H28" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I28" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J28" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S28" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T28" t="n">
-        <v>228.8043313043306</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2922584049637</v>
+        <v>243.8281776402945</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>217.6695081876228</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>242.8363942582361</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>354.4673073438772</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -24694,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H29" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I29" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S29" t="n">
-        <v>161.0683197856248</v>
+        <v>115.3593485763288</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4495390806929</v>
+        <v>216.440907755671</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2327808274177</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>318.4511376314362</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>337.7513958641828</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24761,7 +24761,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>119.6281928219161</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -24773,13 +24773,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.870927696779</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H30" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I30" t="n">
-        <v>48.06357145101165</v>
+        <v>3.360563344909714</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>140.678656014243</v>
+        <v>138.388753805715</v>
       </c>
       <c r="T30" t="n">
-        <v>184.4995948549924</v>
+        <v>164.4912009934113</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>198.4442668694843</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -24852,16 +24852,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7524414473259</v>
+        <v>166.6490862699344</v>
       </c>
       <c r="H31" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I31" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J31" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S31" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T31" t="n">
-        <v>228.8043313043306</v>
+        <v>187.9042796095735</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2922584049637</v>
+        <v>243.8281776402945</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>217.6695081876228</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>247.6590406888131</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24919,25 +24919,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>337.6559778709819</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>355.2020659159924</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H32" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I32" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S32" t="n">
-        <v>161.0683197856248</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4495390806929</v>
+        <v>216.440907755671</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2327808274177</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>318.4511376314362</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>337.7513958641828</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -25004,19 +25004,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>105.0992866341587</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.870927696779</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H33" t="n">
-        <v>93.43070435713413</v>
+        <v>51.78162014094158</v>
       </c>
       <c r="I33" t="n">
-        <v>48.06357145101165</v>
+        <v>3.360563344909714</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>140.678656014243</v>
+        <v>138.388753805715</v>
       </c>
       <c r="T33" t="n">
-        <v>184.4995948549924</v>
+        <v>184.0026833721973</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25064,7 +25064,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>171.084630708131</v>
       </c>
     </row>
     <row r="34">
@@ -25089,16 +25089,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7524414473259</v>
+        <v>166.6490862699344</v>
       </c>
       <c r="H34" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I34" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J34" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S34" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T34" t="n">
-        <v>228.8043313043306</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2922584049637</v>
+        <v>248.6508240708715</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>217.6695081876228</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>188.4814962540392</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>179.3563640101069</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>349.6446609133002</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25168,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H35" t="n">
-        <v>318.5772864942178</v>
+        <v>275.7591298506685</v>
       </c>
       <c r="I35" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S35" t="n">
-        <v>161.0683197856248</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4495390806929</v>
+        <v>216.440907755671</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2327808274177</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>318.4511376314362</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>342.5740422947598</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25241,19 +25241,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>126.0462474649115</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>92.88841686008561</v>
       </c>
       <c r="G36" t="n">
-        <v>126.870927696779</v>
+        <v>86.28920285712347</v>
       </c>
       <c r="H36" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I36" t="n">
-        <v>48.06357145101165</v>
+        <v>43.8190065544485</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>140.678656014243</v>
+        <v>138.388753805715</v>
       </c>
       <c r="T36" t="n">
-        <v>184.4995948549924</v>
+        <v>184.0026833721973</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>198.4442668694843</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>146.0840182185743</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -25326,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7524414473259</v>
+        <v>166.6490862699344</v>
       </c>
       <c r="H37" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I37" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J37" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S37" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T37" t="n">
-        <v>228.8043313043306</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2922584049637</v>
+        <v>243.8281776402945</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25377,10 +25377,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>188.4814962540392</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>179.3563640101069</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>350.3794194854154</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H38" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I38" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S38" t="n">
-        <v>161.0683197856248</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4495390806929</v>
+        <v>216.440907755671</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2327808274177</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>297.9736845840563</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>318.4511376314362</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>337.7513958641828</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25481,16 +25481,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>113.8353776908385</v>
       </c>
       <c r="G39" t="n">
-        <v>126.870927696779</v>
+        <v>86.28920285712347</v>
       </c>
       <c r="H39" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I39" t="n">
-        <v>48.06357145101165</v>
+        <v>3.360563344909714</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>140.678656014243</v>
+        <v>138.388753805715</v>
       </c>
       <c r="T39" t="n">
-        <v>184.4995948549924</v>
+        <v>143.5442401626585</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25563,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7524414473259</v>
+        <v>166.6490862699344</v>
       </c>
       <c r="H40" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I40" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J40" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S40" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8043313043306</v>
+        <v>187.9042796095735</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2922584049637</v>
+        <v>243.8281776402945</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>217.6695081876228</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>247.6590406888131</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>349.6446609133002</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -25639,16 +25639,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>369.5512355733925</v>
       </c>
       <c r="G41" t="n">
-        <v>410.8770831222486</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H41" t="n">
-        <v>318.5772864942178</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I41" t="n">
-        <v>129.9973219794369</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>22.77835190727248</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S41" t="n">
-        <v>161.0683197856248</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4495390806929</v>
+        <v>175.9824645461322</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2512138384975</v>
+        <v>216.5969840484559</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25721,13 +25721,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.870927696779</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H42" t="n">
-        <v>93.43070435713413</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I42" t="n">
-        <v>48.06357145101165</v>
+        <v>43.8190065544485</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.77858964549403</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>140.678656014243</v>
+        <v>97.93031059617618</v>
       </c>
       <c r="T42" t="n">
-        <v>184.4995948549924</v>
+        <v>143.5442401626585</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2723255776618</v>
+        <v>196.7527325653155</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>198.4442668694843</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -25794,22 +25794,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>114.8531273173326</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>110.4974052149419</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7524414473259</v>
+        <v>126.1906430603956</v>
       </c>
       <c r="H43" t="n">
-        <v>153.5280889036506</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I43" t="n">
-        <v>128.3829513838347</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J43" t="n">
-        <v>25.65431051583756</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>126.5290129463684</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S43" t="n">
-        <v>203.2405168609909</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T43" t="n">
-        <v>228.8043313043306</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2866208498332</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>242.8363942582361</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>349.6446609133002</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25879,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.8333485808955</v>
+        <v>410.6466704837513</v>
       </c>
       <c r="H44" t="n">
-        <v>318.1293901225855</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I44" t="n">
-        <v>128.3112460739222</v>
+        <v>121.1143387337698</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.03111202400184</v>
+        <v>8.304694004266537</v>
       </c>
       <c r="S44" t="n">
-        <v>160.0717189245414</v>
+        <v>155.8177917858676</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2580911259198</v>
+        <v>175.9824645461322</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2477150751892</v>
+        <v>211.7743376178789</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>297.9736845840563</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -25952,19 +25952,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>126.0462474649115</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>92.88841686008561</v>
       </c>
       <c r="G45" t="n">
-        <v>126.847527654205</v>
+        <v>86.28920285712347</v>
       </c>
       <c r="H45" t="n">
-        <v>93.20470920911717</v>
+        <v>51.78162014094158</v>
       </c>
       <c r="I45" t="n">
-        <v>47.25791209046071</v>
+        <v>43.8190065544485</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.32573437059479</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>140.2440104866082</v>
+        <v>138.388753805715</v>
       </c>
       <c r="T45" t="n">
-        <v>184.4052762623368</v>
+        <v>184.0026833721973</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2707861011767</v>
+        <v>216.2642149441015</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>141.2613717879972</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26034,19 +26034,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>110.4974052149419</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7328236376903</v>
+        <v>126.1906430603956</v>
       </c>
       <c r="H46" t="n">
-        <v>153.3536687416174</v>
+        <v>152.6091674173879</v>
       </c>
       <c r="I46" t="n">
-        <v>127.792990344974</v>
+        <v>125.2747793219154</v>
       </c>
       <c r="J46" t="n">
-        <v>24.26733137459814</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>125.6469248876606</v>
+        <v>121.8817883338372</v>
       </c>
       <c r="S46" t="n">
-        <v>202.898631942159</v>
+        <v>201.4393179968134</v>
       </c>
       <c r="T46" t="n">
-        <v>228.7205097540693</v>
+        <v>228.3627228191123</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2911883426199</v>
+        <v>284.2866208498332</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>247.6590406888131</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>303360.6054673697</v>
+        <v>302422.5544009016</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591907</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>300766.1880003325</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>300799.7215409404</v>
+        <v>336974.9141591908</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58332.5414782312</v>
+        <v>58763.10590694869</v>
       </c>
       <c r="C2" t="n">
         <v>58763.10590694869</v>
       </c>
       <c r="D2" t="n">
-        <v>59058.3577570661</v>
+        <v>59058.35775706609</v>
       </c>
       <c r="E2" t="n">
-        <v>59833.91753685106</v>
+        <v>59833.91753685105</v>
       </c>
       <c r="F2" t="n">
-        <v>59833.91753685103</v>
+        <v>59833.91753685104</v>
       </c>
       <c r="G2" t="n">
         <v>59833.91753685106</v>
       </c>
       <c r="H2" t="n">
-        <v>59833.91753685106</v>
+        <v>59833.91753685105</v>
       </c>
       <c r="I2" t="n">
-        <v>59833.91753685104</v>
+        <v>67816.14033052836</v>
       </c>
       <c r="J2" t="n">
-        <v>59833.91753685105</v>
+        <v>67816.14033052835</v>
       </c>
       <c r="K2" t="n">
-        <v>59833.91753685105</v>
+        <v>67816.14033052836</v>
       </c>
       <c r="L2" t="n">
-        <v>59833.91753685105</v>
+        <v>67816.14033052836</v>
       </c>
       <c r="M2" t="n">
-        <v>59833.91753685104</v>
+        <v>67816.14033052836</v>
       </c>
       <c r="N2" t="n">
-        <v>59833.91753685106</v>
+        <v>67816.14033052837</v>
       </c>
       <c r="O2" t="n">
-        <v>59833.91753685106</v>
+        <v>67816.14033052835</v>
       </c>
       <c r="P2" t="n">
-        <v>60043.6829067598</v>
+        <v>67816.14033052835</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183817.6412139467</v>
+        <v>204186.7702736322</v>
       </c>
       <c r="C3" t="n">
-        <v>19248.56727753535</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>12413.89443329499</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53902.66687675427</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7240.779447535443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21419.98832258561</v>
+        <v>18400.87585064966</v>
       </c>
       <c r="C4" t="n">
         <v>18400.87585064967</v>
@@ -26438,28 +26438,28 @@
         <v>11568.91990555253</v>
       </c>
       <c r="I4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="J4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="K4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="L4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="M4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="N4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="O4" t="n">
-        <v>11568.91990555253</v>
+        <v>9231.986161966601</v>
       </c>
       <c r="P4" t="n">
-        <v>10588.58749160148</v>
+        <v>9231.986161966599</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37786.14142530667</v>
+        <v>38246.95610246559</v>
       </c>
       <c r="C5" t="n">
         <v>38246.95610246559</v>
@@ -26490,28 +26490,28 @@
         <v>5779.911609715572</v>
       </c>
       <c r="I5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="J5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="K5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="L5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="M5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="N5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="O5" t="n">
-        <v>5779.911609715572</v>
+        <v>9489.255092266756</v>
       </c>
       <c r="P5" t="n">
-        <v>6017.073093838006</v>
+        <v>9489.255092266756</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184691.2294836078</v>
+        <v>-216365.1723399076</v>
       </c>
       <c r="C6" t="n">
-        <v>-17133.29332370191</v>
+        <v>-12178.40206627539</v>
       </c>
       <c r="D6" t="n">
-        <v>-8341.174372670066</v>
+        <v>-22610.24607193578</v>
       </c>
       <c r="E6" t="n">
-        <v>11360.21856421582</v>
+        <v>-2844.223153401135</v>
       </c>
       <c r="F6" t="n">
-        <v>42485.08602158293</v>
+        <v>28280.64430396598</v>
       </c>
       <c r="G6" t="n">
-        <v>42485.08602158295</v>
+        <v>28280.64430396599</v>
       </c>
       <c r="H6" t="n">
-        <v>42485.08602158295</v>
+        <v>28280.64430396599</v>
       </c>
       <c r="I6" t="n">
-        <v>42485.08602158294</v>
+        <v>-18347.02428526978</v>
       </c>
       <c r="J6" t="n">
-        <v>42485.08602158295</v>
+        <v>35555.64259148447</v>
       </c>
       <c r="K6" t="n">
-        <v>42485.08602158295</v>
+        <v>35555.64259148448</v>
       </c>
       <c r="L6" t="n">
-        <v>42485.08602158295</v>
+        <v>35555.64259148449</v>
       </c>
       <c r="M6" t="n">
-        <v>42485.08602158294</v>
+        <v>35555.64259148449</v>
       </c>
       <c r="N6" t="n">
-        <v>42485.08602158296</v>
+        <v>35555.6425914845</v>
       </c>
       <c r="O6" t="n">
-        <v>42485.08602158296</v>
+        <v>35555.64259148447</v>
       </c>
       <c r="P6" t="n">
-        <v>36197.24287378488</v>
+        <v>35555.64259148447</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7587809773703</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="C3" t="n">
         <v>211.8970689204402</v>
@@ -26758,28 +26758,28 @@
         <v>265.133560078696</v>
       </c>
       <c r="I3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="J3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="K3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="L3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="M3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="N3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="O3" t="n">
-        <v>265.133560078696</v>
+        <v>322.448703904899</v>
       </c>
       <c r="P3" t="n">
-        <v>276.0125272402755</v>
+        <v>322.448703904899</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7587809773703</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="C3" t="n">
-        <v>21.13828794306991</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>14.49520259278222</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>57.31514382620304</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87896716157951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H2" t="n">
-        <v>7.853701972600975</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I2" t="n">
-        <v>29.56473529097515</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J2" t="n">
-        <v>65.08708778684657</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K2" t="n">
-        <v>97.54867250552832</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L2" t="n">
-        <v>121.0177540867794</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6555690464027</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8344369316367</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O2" t="n">
-        <v>129.2088786267373</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P2" t="n">
-        <v>110.2767885548626</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q2" t="n">
-        <v>82.81327561515576</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R2" t="n">
-        <v>48.17186442440096</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S2" t="n">
-        <v>17.47503807646966</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T2" t="n">
-        <v>3.356971110466083</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06134955770126475</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4103113402154758</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H3" t="n">
-        <v>3.962743733133674</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I3" t="n">
-        <v>14.12694745917318</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J3" t="n">
-        <v>38.76542359465599</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K3" t="n">
-        <v>66.25628338909286</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L3" t="n">
-        <v>89.08974954985582</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M3" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>97.62350558188119</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P3" t="n">
-        <v>78.35146986974291</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.37588265627722</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R3" t="n">
-        <v>25.47529531618542</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S3" t="n">
-        <v>7.621353183388328</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T3" t="n">
-        <v>1.653842638850974</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05839488189948</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I4" t="n">
-        <v>10.34475487660887</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J4" t="n">
-        <v>24.32018097804932</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K4" t="n">
-        <v>39.96552821132445</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L4" t="n">
-        <v>51.1421164607199</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M4" t="n">
-        <v>53.92219115398024</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N4" t="n">
-        <v>52.6400419703619</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O4" t="n">
-        <v>48.621598797314</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P4" t="n">
-        <v>41.60417741185136</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.80457592758292</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R4" t="n">
-        <v>15.46709722482087</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S4" t="n">
-        <v>5.994829231698668</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T4" t="n">
-        <v>1.469780771464984</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.06586355810531</v>
       </c>
       <c r="H11" t="n">
-        <v>10.915775164446</v>
+        <v>10.91577516444601</v>
       </c>
       <c r="I11" t="n">
         <v>41.09170482385499</v>
       </c>
       <c r="J11" t="n">
-        <v>90.4638371647406</v>
+        <v>90.46383716474061</v>
       </c>
       <c r="K11" t="n">
         <v>135.5818415793384</v>
@@ -31785,7 +31785,7 @@
         <v>115.1012733103448</v>
       </c>
       <c r="R11" t="n">
-        <v>66.9535517318327</v>
+        <v>66.95355173183272</v>
       </c>
       <c r="S11" t="n">
         <v>24.28836583032476</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.5702872801692707</v>
       </c>
       <c r="H12" t="n">
         <v>5.507774521634798</v>
@@ -31840,7 +31840,7 @@
         <v>19.63489100582796</v>
       </c>
       <c r="J12" t="n">
-        <v>53.87964167599236</v>
+        <v>53.87964167599237</v>
       </c>
       <c r="K12" t="n">
         <v>92.08888944733349</v>
@@ -31861,7 +31861,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.79667106160724</v>
+        <v>72.79667106160726</v>
       </c>
       <c r="R12" t="n">
         <v>35.40783657050964</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4781096985025665</v>
       </c>
       <c r="H13" t="n">
-        <v>4.250829864868275</v>
+        <v>4.250829864868276</v>
       </c>
       <c r="I13" t="n">
         <v>14.37806256951355</v>
@@ -31928,7 +31928,7 @@
         <v>71.08187281191793</v>
       </c>
       <c r="M13" t="n">
-        <v>74.94586846617956</v>
+        <v>74.94586846617958</v>
       </c>
       <c r="N13" t="n">
         <v>73.16382322630642</v>
@@ -31952,7 +31952,7 @@
         <v>2.042832348147329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02607871082741275</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.06586355810531</v>
       </c>
       <c r="H20" t="n">
-        <v>10.915775164446</v>
+        <v>10.91577516444601</v>
       </c>
       <c r="I20" t="n">
         <v>41.09170482385499</v>
       </c>
       <c r="J20" t="n">
-        <v>90.4638371647406</v>
+        <v>90.46383716474061</v>
       </c>
       <c r="K20" t="n">
         <v>135.5818415793384</v>
@@ -32496,7 +32496,7 @@
         <v>115.1012733103448</v>
       </c>
       <c r="R20" t="n">
-        <v>66.9535517318327</v>
+        <v>66.95355173183272</v>
       </c>
       <c r="S20" t="n">
         <v>24.28836583032476</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.5702872801692707</v>
       </c>
       <c r="H21" t="n">
         <v>5.507774521634798</v>
@@ -32551,7 +32551,7 @@
         <v>19.63489100582796</v>
       </c>
       <c r="J21" t="n">
-        <v>53.87964167599236</v>
+        <v>53.87964167599237</v>
       </c>
       <c r="K21" t="n">
         <v>92.08888944733349</v>
@@ -32572,7 +32572,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.79667106160724</v>
+        <v>72.79667106160726</v>
       </c>
       <c r="R21" t="n">
         <v>35.40783657050964</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4781096985025665</v>
       </c>
       <c r="H22" t="n">
-        <v>4.250829864868275</v>
+        <v>4.250829864868276</v>
       </c>
       <c r="I22" t="n">
         <v>14.37806256951355</v>
@@ -32639,7 +32639,7 @@
         <v>71.08187281191793</v>
       </c>
       <c r="M22" t="n">
-        <v>74.94586846617956</v>
+        <v>74.94586846617958</v>
       </c>
       <c r="N22" t="n">
         <v>73.16382322630642</v>
@@ -32663,7 +32663,7 @@
         <v>2.042832348147329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02607871082741275</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H23" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I23" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J23" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K23" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L23" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O23" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P23" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R23" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S23" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T23" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H24" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I24" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J24" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K24" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M24" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>147.1735842772471</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8594486111111</v>
+        <v>133.5373772454747</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R24" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S24" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T24" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H25" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I25" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K25" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L25" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M25" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N25" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O25" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P25" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R25" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S25" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T25" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H26" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J26" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K26" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L26" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O26" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P26" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R26" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S26" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T26" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H27" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I27" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J27" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K27" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M27" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>124.3930697020719</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R27" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S27" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T27" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H28" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I28" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J28" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K28" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L28" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M28" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N28" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O28" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P28" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R28" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S28" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T28" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H29" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J29" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K29" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L29" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O29" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P29" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R29" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S29" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T29" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H30" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I30" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J30" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K30" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>147.1735842772471</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>109.660727600405</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R30" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S30" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T30" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H31" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I31" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J31" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K31" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L31" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M31" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N31" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O31" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P31" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R31" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S31" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T31" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H32" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J32" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L32" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O32" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P32" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R32" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S32" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T32" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H33" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I33" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J33" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K33" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>124.3930697020719</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S33" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T33" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H34" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I34" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J34" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K34" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L34" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M34" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N34" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O34" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P34" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R34" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S34" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T34" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H35" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I35" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J35" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K35" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L35" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O35" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P35" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R35" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S35" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T35" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H36" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I36" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J36" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K36" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>133.1618311960035</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>147.1735842772471</v>
       </c>
       <c r="O36" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R36" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S36" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T36" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H37" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I37" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J37" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K37" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L37" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M37" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N37" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O37" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P37" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R37" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S37" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T37" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H38" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I38" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J38" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K38" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L38" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O38" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P38" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R38" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S38" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T38" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H39" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I39" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J39" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K39" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M39" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N39" t="n">
-        <v>106.7151410677083</v>
+        <v>124.3930697020719</v>
       </c>
       <c r="O39" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R39" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S39" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T39" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H40" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I40" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J40" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K40" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L40" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M40" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N40" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O40" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P40" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R40" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S40" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T40" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.06586355810531</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H41" t="n">
-        <v>10.915775164446</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I41" t="n">
-        <v>41.09170482385499</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J41" t="n">
-        <v>90.4638371647406</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K41" t="n">
-        <v>135.5818415793384</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L41" t="n">
-        <v>168.2012634457038</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N41" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O41" t="n">
-        <v>179.5860185757161</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P41" t="n">
-        <v>153.2725119849913</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.1012733103448</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R41" t="n">
-        <v>66.9535517318327</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S41" t="n">
-        <v>24.28836583032476</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T41" t="n">
-        <v>4.665817725605995</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H42" t="n">
-        <v>5.507774521634798</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I42" t="n">
-        <v>19.63489100582796</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J42" t="n">
-        <v>53.87964167599236</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K42" t="n">
-        <v>92.08888944733349</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M42" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N42" t="n">
-        <v>106.7151410677083</v>
+        <v>124.3930697020719</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>156.3178918206499</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.79667106160724</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R42" t="n">
-        <v>35.40783657050964</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S42" t="n">
-        <v>10.59283610314412</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T42" t="n">
-        <v>2.298657940682278</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H43" t="n">
-        <v>4.250829864868275</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I43" t="n">
-        <v>14.37806256951355</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J43" t="n">
-        <v>33.80235568413144</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K43" t="n">
-        <v>55.54765406238907</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L43" t="n">
-        <v>71.08187281191793</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M43" t="n">
-        <v>74.94586846617956</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N43" t="n">
-        <v>73.16382322630642</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O43" t="n">
-        <v>67.57863265743551</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P43" t="n">
-        <v>57.8251948079831</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.03516757188309</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R43" t="n">
-        <v>21.49755062539721</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S43" t="n">
-        <v>8.332148109358359</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T43" t="n">
-        <v>2.042832348147329</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.109598099458393</v>
+        <v>1.296276196602608</v>
       </c>
       <c r="H44" t="n">
-        <v>11.36367153607827</v>
+        <v>13.27548859845646</v>
       </c>
       <c r="I44" t="n">
-        <v>42.77778072936974</v>
+        <v>49.9746880695221</v>
       </c>
       <c r="J44" t="n">
-        <v>94.17575169390686</v>
+        <v>110.0198218414007</v>
       </c>
       <c r="K44" t="n">
-        <v>141.1450392439807</v>
+        <v>164.8911932435891</v>
       </c>
       <c r="L44" t="n">
-        <v>175.1029020802805</v>
+        <v>204.5621058953662</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>227.6147577066979</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>226.8565573817689</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>218.4079560203278</v>
       </c>
       <c r="P44" t="n">
-        <v>159.5615936997414</v>
+        <v>186.4061374167009</v>
       </c>
       <c r="Q44" t="n">
-        <v>119.8241117628876</v>
+        <v>139.98324612587</v>
       </c>
       <c r="R44" t="n">
-        <v>69.70079161510334</v>
+        <v>81.42720963483865</v>
       </c>
       <c r="S44" t="n">
-        <v>25.28496669140815</v>
+        <v>29.53889383008196</v>
       </c>
       <c r="T44" t="n">
-        <v>4.857265680379118</v>
+        <v>5.67444905062792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08876784795667142</v>
+        <v>0.1037020957282086</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5936873227432341</v>
+        <v>0.6935689102860092</v>
       </c>
       <c r="H45" t="n">
-        <v>5.733769669651761</v>
+        <v>6.698415528288563</v>
       </c>
       <c r="I45" t="n">
-        <v>20.44055036637889</v>
+        <v>23.87945590239111</v>
       </c>
       <c r="J45" t="n">
-        <v>56.09043254040354</v>
+        <v>65.52705217750406</v>
       </c>
       <c r="K45" t="n">
-        <v>95.86748316420022</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>150.5926706303021</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>155.9423457711787</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>147.1735842772471</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>133.5373772454747</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>132.4412421755801</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.78366596982055</v>
+        <v>88.53346300422812</v>
       </c>
       <c r="R45" t="n">
-        <v>36.86069184540888</v>
+        <v>43.06211181582785</v>
       </c>
       <c r="S45" t="n">
-        <v>11.02748163077892</v>
+        <v>12.88273831167214</v>
       </c>
       <c r="T45" t="n">
-        <v>2.392976533337859</v>
+        <v>2.795569423477378</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03905837649626542</v>
+        <v>0.04562953357144799</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4977275081382016</v>
+        <v>0.58146487589408</v>
       </c>
       <c r="H46" t="n">
-        <v>4.425250026901469</v>
+        <v>5.169751351131007</v>
       </c>
       <c r="I46" t="n">
-        <v>14.96802360837428</v>
+        <v>17.48623463143289</v>
       </c>
       <c r="J46" t="n">
-        <v>35.18933482537086</v>
+        <v>41.10956672571146</v>
       </c>
       <c r="K46" t="n">
-        <v>57.82688685460196</v>
+        <v>67.55564649023947</v>
       </c>
       <c r="L46" t="n">
-        <v>73.998506073565</v>
+        <v>86.4479689124708</v>
       </c>
       <c r="M46" t="n">
-        <v>78.02104929842736</v>
+        <v>91.14726231856019</v>
       </c>
       <c r="N46" t="n">
-        <v>76.16588313173048</v>
+        <v>88.97998414477324</v>
       </c>
       <c r="O46" t="n">
-        <v>70.35152087757056</v>
+        <v>82.18741718546509</v>
       </c>
       <c r="P46" t="n">
-        <v>60.1978797115512</v>
+        <v>70.32553371722581</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.6778916132816</v>
+        <v>48.68975428963974</v>
       </c>
       <c r="R46" t="n">
-        <v>22.37963868410495</v>
+        <v>26.14477523792836</v>
       </c>
       <c r="S46" t="n">
-        <v>8.674033028190292</v>
+        <v>10.13334697353592</v>
       </c>
       <c r="T46" t="n">
-        <v>2.126653898408679</v>
+        <v>2.484440833365614</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02714877317117467</v>
+        <v>0.03171626595785895</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>31.45315924020738</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>34.82714887249578</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -36533,10 +36533,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>31.45315924020738</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>34.82714887249578</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>34.82714887249578</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>31.45315924020738</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.8065215762616622</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>38.82375863541602</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37235,16 +37235,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>38.82375863541602</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>31.45315924020738</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>34.82714887249578</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>38.82375863541602</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>38.82375863541601</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>34.82714887249578</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>31.45315924020738</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>13.00189373225163</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.82186490316436</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>38.01723705915435</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>17.67792863436363</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>23.58703615143681</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38183,19 +38183,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>28.28597227862414</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>40.45844320953879</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.53778635679189</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
